--- a/cv/cv_data.xlsx
+++ b/cv/cv_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjspielman/sjspielman.github.io/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4733A-F520-914D-A29C-C5814857517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C4A47-B18E-874A-8A57-4DF46C6307B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36500" yWindow="-100" windowWidth="35560" windowHeight="16300" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
+    <workbookView xWindow="-36500" yWindow="-100" windowWidth="35560" windowHeight="16300" activeTab="2" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>institution</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Austin, Texas, USA</t>
   </si>
   <si>
+    <t>Awarded "Outstanding Dissertation Award" among all of science, math, and engineering</t>
+  </si>
+  <si>
     <t>Ph.D., Integrative Biology</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Graduate Teaching Assistant</t>
   </si>
   <si>
+    <t>Supported undergraduate level courses in Biostatistics, Computational Biology and Bioinformatics, and Evolutionary Biology</t>
+  </si>
+  <si>
     <t>Research Assistant Professor</t>
   </si>
   <si>
@@ -115,9 +121,6 @@
     <t>2018-2022</t>
   </si>
   <si>
-    <t>Data Scientist</t>
-  </si>
-  <si>
     <t>Alex's Lemonade Stand Foundation</t>
   </si>
   <si>
@@ -166,16 +169,10 @@
     <t xml:space="preserve">Developed research in methods for quantifying protein evolution and taught graduate-level courses in Biostatistics and Evolutionary Medicine. </t>
   </si>
   <si>
-    <t>Taught undergraduate level courses in Biostatistics, Computational Biology and Bioinformatics, and Evolutionary Biology</t>
-  </si>
-  <si>
     <t xml:space="preserve">Computational molecular evolution research, including phylogenetic modeling and virus evolution. </t>
   </si>
   <si>
-    <t>Research Advisor: Claus O. Wilke, PhD</t>
-  </si>
-  <si>
-    <t>Research Advisor: Daniel M. Weinreich, PhD</t>
+    <t>Data Scientist, Childhood Cancer Data Lab</t>
   </si>
 </sst>
 </file>
@@ -561,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AE3D1-7C9F-C24D-A42B-F2C4925E72DD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +590,7 @@
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -605,25 +602,23 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2010</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -676,7 +671,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -691,7 +686,7 @@
         <v>2016</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>44</v>
@@ -699,7 +694,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -714,21 +709,21 @@
         <v>2016</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>2016</v>
@@ -737,21 +732,21 @@
         <v>2018</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2018</v>
@@ -760,30 +755,30 @@
         <v>2022</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>2022</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -804,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E0F63F-CA23-764C-949A-F5FD9E8C4A81}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -836,7 +831,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>2014</v>
@@ -848,12 +843,12 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -865,12 +860,12 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>2015</v>
@@ -882,24 +877,24 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>2021</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
